--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H2">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N2">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O2">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P2">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q2">
-        <v>11359.18012510334</v>
+        <v>12775.6241283272</v>
       </c>
       <c r="R2">
-        <v>102232.62112593</v>
+        <v>114980.6171549448</v>
       </c>
       <c r="S2">
-        <v>0.1186729271828607</v>
+        <v>0.09670124484257295</v>
       </c>
       <c r="T2">
-        <v>0.1186729271828607</v>
+        <v>0.09670124484257292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H3">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.120125</v>
       </c>
       <c r="O3">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P3">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q3">
-        <v>2520.527934763041</v>
+        <v>2474.807174168903</v>
       </c>
       <c r="R3">
-        <v>22684.75141286737</v>
+        <v>22273.26456752012</v>
       </c>
       <c r="S3">
-        <v>0.0263327480302439</v>
+        <v>0.01873230865933424</v>
       </c>
       <c r="T3">
-        <v>0.02633274803024391</v>
+        <v>0.01873230865933424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H4">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N4">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O4">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P4">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q4">
-        <v>427.4369150679637</v>
+        <v>369.9710099419627</v>
       </c>
       <c r="R4">
-        <v>3846.932235611673</v>
+        <v>3329.739089477664</v>
       </c>
       <c r="S4">
-        <v>0.004465567878884709</v>
+        <v>0.002800384298855871</v>
       </c>
       <c r="T4">
-        <v>0.004465567878884709</v>
+        <v>0.002800384298855871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H5">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N5">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O5">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P5">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q5">
-        <v>193.7621790678166</v>
+        <v>174.7999474413783</v>
       </c>
       <c r="R5">
-        <v>1743.85961161035</v>
+        <v>1573.199526972405</v>
       </c>
       <c r="S5">
-        <v>0.002024294422137991</v>
+        <v>0.001323095634797051</v>
       </c>
       <c r="T5">
-        <v>0.002024294422137991</v>
+        <v>0.001323095634797051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H6">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N6">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O6">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P6">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q6">
-        <v>329.6104983291639</v>
+        <v>430.0044995973939</v>
       </c>
       <c r="R6">
-        <v>2966.494484962475</v>
+        <v>3870.040496376545</v>
       </c>
       <c r="S6">
-        <v>0.003443544537204656</v>
+        <v>0.003254789745009526</v>
       </c>
       <c r="T6">
-        <v>0.003443544537204656</v>
+        <v>0.003254789745009526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J7">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N7">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O7">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P7">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q7">
-        <v>4347.234250698553</v>
+        <v>4979.644406346491</v>
       </c>
       <c r="R7">
-        <v>39125.10825628698</v>
+        <v>44816.7996571184</v>
       </c>
       <c r="S7">
-        <v>0.04541692340452204</v>
+        <v>0.037691920811865</v>
       </c>
       <c r="T7">
-        <v>0.04541692340452203</v>
+        <v>0.03769192081186499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J8">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>155.120125</v>
       </c>
       <c r="O8">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P8">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q8">
         <v>964.622908270389</v>
@@ -948,10 +948,10 @@
         <v>8681.6061744335</v>
       </c>
       <c r="S8">
-        <v>0.01007771889267842</v>
+        <v>0.007301423014362231</v>
       </c>
       <c r="T8">
-        <v>0.01007771889267842</v>
+        <v>0.007301423014362231</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J9">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N9">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O9">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P9">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q9">
-        <v>163.5829678490529</v>
+        <v>144.2061891976689</v>
       </c>
       <c r="R9">
-        <v>1472.246710641476</v>
+        <v>1297.85570277902</v>
       </c>
       <c r="S9">
-        <v>0.001709002711296498</v>
+        <v>0.001091525382192351</v>
       </c>
       <c r="T9">
-        <v>0.001709002711296498</v>
+        <v>0.001091525382192351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J10">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N10">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O10">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P10">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q10">
-        <v>74.15408260602223</v>
+        <v>68.13299857312667</v>
       </c>
       <c r="R10">
-        <v>667.3867434542</v>
+        <v>613.19698715814</v>
       </c>
       <c r="S10">
-        <v>0.0007747110221422124</v>
+        <v>0.0005157122431513862</v>
       </c>
       <c r="T10">
-        <v>0.0007747110221422124</v>
+        <v>0.0005157122431513862</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J11">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N11">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O11">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P11">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q11">
-        <v>126.1441434985013</v>
+        <v>167.6058625093845</v>
       </c>
       <c r="R11">
-        <v>1135.297291486512</v>
+        <v>1508.45276258446</v>
       </c>
       <c r="S11">
-        <v>0.001317867538948441</v>
+        <v>0.001268642172372113</v>
       </c>
       <c r="T11">
-        <v>0.001317867538948441</v>
+        <v>0.001268642172372113</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H12">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N12">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O12">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P12">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q12">
-        <v>22757.5337583597</v>
+        <v>45659.99038104739</v>
       </c>
       <c r="R12">
-        <v>204817.8038252373</v>
+        <v>410939.9134294264</v>
       </c>
       <c r="S12">
-        <v>0.2377551123253048</v>
+        <v>0.3456095659199174</v>
       </c>
       <c r="T12">
-        <v>0.2377551123253048</v>
+        <v>0.3456095659199174</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H13">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.120125</v>
       </c>
       <c r="O13">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P13">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q13">
-        <v>5049.748215321722</v>
+        <v>8844.943357166139</v>
       </c>
       <c r="R13">
-        <v>45447.7339378955</v>
+        <v>79604.49021449526</v>
       </c>
       <c r="S13">
-        <v>0.05275630773072222</v>
+        <v>0.06694913881377662</v>
       </c>
       <c r="T13">
-        <v>0.05275630773072223</v>
+        <v>0.06694913881377662</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H14">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N14">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O14">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P14">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q14">
-        <v>856.3478980961944</v>
+        <v>1322.273775866659</v>
       </c>
       <c r="R14">
-        <v>7707.131082865749</v>
+        <v>11900.46398279993</v>
       </c>
       <c r="S14">
-        <v>0.0089465358093387</v>
+        <v>0.01000855370075274</v>
       </c>
       <c r="T14">
-        <v>0.0089465358093387</v>
+        <v>0.01000855370075274</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H15">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N15">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O15">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P15">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q15">
-        <v>388.1925704729555</v>
+        <v>624.7337772785568</v>
       </c>
       <c r="R15">
-        <v>3493.7331342566</v>
+        <v>5622.603995507011</v>
       </c>
       <c r="S15">
-        <v>0.004055569868714048</v>
+        <v>0.004728734451735107</v>
       </c>
       <c r="T15">
-        <v>0.004055569868714049</v>
+        <v>0.004728734451735107</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H16">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N16">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O16">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P16">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q16">
-        <v>660.3576983745974</v>
+        <v>1536.833043787655</v>
       </c>
       <c r="R16">
-        <v>5943.219285371376</v>
+        <v>13831.49739408889</v>
       </c>
       <c r="S16">
-        <v>0.00689896455472724</v>
+        <v>0.0116325955551516</v>
       </c>
       <c r="T16">
-        <v>0.00689896455472724</v>
+        <v>0.0116325955551516</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H17">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N17">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O17">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P17">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q17">
-        <v>2524.702019825287</v>
+        <v>3370.729023686101</v>
       </c>
       <c r="R17">
-        <v>22722.31817842758</v>
+        <v>30336.56121317491</v>
       </c>
       <c r="S17">
-        <v>0.02637635600962194</v>
+        <v>0.02551371966984409</v>
       </c>
       <c r="T17">
-        <v>0.02637635600962194</v>
+        <v>0.02551371966984408</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H18">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>155.120125</v>
       </c>
       <c r="O18">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P18">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q18">
-        <v>560.214900885236</v>
+        <v>652.954743048625</v>
       </c>
       <c r="R18">
-        <v>5041.934107967125</v>
+        <v>5876.592687437625</v>
       </c>
       <c r="S18">
-        <v>0.005852741254853753</v>
+        <v>0.00494234456527737</v>
       </c>
       <c r="T18">
-        <v>0.005852741254853754</v>
+        <v>0.00494234456527737</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H19">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N19">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O19">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P19">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q19">
-        <v>95.00252931416212</v>
+        <v>97.61339317808499</v>
       </c>
       <c r="R19">
-        <v>855.022763827459</v>
+        <v>878.5205386027649</v>
       </c>
       <c r="S19">
-        <v>0.0009925213016537657</v>
+        <v>0.0007388552245129561</v>
       </c>
       <c r="T19">
-        <v>0.0009925213016537654</v>
+        <v>0.0007388552245129561</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H20">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N20">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O20">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P20">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q20">
-        <v>43.06576350322777</v>
+        <v>46.119332430345</v>
       </c>
       <c r="R20">
-        <v>387.59187152905</v>
+        <v>415.073991873105</v>
       </c>
       <c r="S20">
-        <v>0.0004499215753255215</v>
+        <v>0.0003490864174247397</v>
       </c>
       <c r="T20">
-        <v>0.0004499215753255216</v>
+        <v>0.0003490864174247397</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H21">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N21">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O21">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P21">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q21">
-        <v>73.25953825207866</v>
+        <v>113.452668343205</v>
       </c>
       <c r="R21">
-        <v>659.335844268708</v>
+        <v>1021.074015088845</v>
       </c>
       <c r="S21">
-        <v>0.0007653654359460063</v>
+        <v>0.0008587458545507474</v>
       </c>
       <c r="T21">
-        <v>0.0007653654359460063</v>
+        <v>0.0008587458545507474</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H22">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N22">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O22">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P22">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q22">
-        <v>32325.19664768705</v>
+        <v>37240.02354275497</v>
       </c>
       <c r="R22">
-        <v>290926.7698291835</v>
+        <v>335160.2118847947</v>
       </c>
       <c r="S22">
-        <v>0.3377114955211365</v>
+        <v>0.2818771590631206</v>
       </c>
       <c r="T22">
-        <v>0.3377114955211365</v>
+        <v>0.2818771590631206</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H23">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>155.120125</v>
       </c>
       <c r="O23">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P23">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q23">
-        <v>7172.750167694223</v>
+        <v>7213.884543259194</v>
       </c>
       <c r="R23">
-        <v>64554.75150924801</v>
+        <v>64924.96088933275</v>
       </c>
       <c r="S23">
-        <v>0.07493597680262901</v>
+        <v>0.05460332962810013</v>
       </c>
       <c r="T23">
-        <v>0.07493597680262902</v>
+        <v>0.05460332962810013</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H24">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N24">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O24">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P24">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q24">
-        <v>1216.371444231055</v>
+        <v>1078.438828661714</v>
       </c>
       <c r="R24">
-        <v>10947.34299807949</v>
+        <v>9705.949457955428</v>
       </c>
       <c r="S24">
-        <v>0.01270781502174919</v>
+        <v>0.008162918396050909</v>
       </c>
       <c r="T24">
-        <v>0.01270781502174919</v>
+        <v>0.008162918396050909</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H25">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N25">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O25">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P25">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q25">
-        <v>551.3954768099555</v>
+        <v>509.5292482467233</v>
       </c>
       <c r="R25">
-        <v>4962.559291289601</v>
+        <v>4585.76323422051</v>
       </c>
       <c r="S25">
-        <v>0.005760601957866331</v>
+        <v>0.003856728414536569</v>
       </c>
       <c r="T25">
-        <v>0.005760601957866332</v>
+        <v>0.003856728414536569</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H26">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N26">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O26">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P26">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q26">
-        <v>937.9835567609174</v>
+        <v>1253.432124148932</v>
       </c>
       <c r="R26">
-        <v>8441.852010848257</v>
+        <v>11280.88911734039</v>
       </c>
       <c r="S26">
-        <v>0.009799409209491374</v>
+        <v>0.009487477520735638</v>
       </c>
       <c r="T26">
-        <v>0.009799409209491374</v>
+        <v>0.009487477520735638</v>
       </c>
     </row>
   </sheetData>
